--- a/downloads/testcases/testcases.xlsx
+++ b/downloads/testcases/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VCFs" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'test001 (F)'!$A$1:$AB$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'test002 (M)'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'test003 (F)'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'test004 (F)'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VCFs!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="107">
   <si>
     <t>VCF</t>
   </si>
@@ -340,6 +342,15 @@
   </si>
   <si>
     <t>homozygous G</t>
+  </si>
+  <si>
+    <t>ALT=A, homozygous</t>
+  </si>
+  <si>
+    <t>ALT=G, heterozygous</t>
+  </si>
+  <si>
+    <t>ALT=G, homozygous</t>
   </si>
 </sst>
 </file>
@@ -683,7 +694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,11 +875,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,6 +2217,234 @@
         <v>83</v>
       </c>
     </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="3">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3">
+        <v>200</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3">
+        <v>300</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3">
+        <v>100</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="3">
+        <v>200</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3">
+        <v>300</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AB1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2215,11 +2454,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2272,7 +2511,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
@@ -2305,12 +2544,12 @@
         <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>200</v>
@@ -2337,18 +2576,18 @@
         <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>300</v>
@@ -2375,18 +2614,18 @@
         <v>60</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>100</v>
@@ -2424,7 +2663,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3">
         <v>200</v>
@@ -2462,7 +2701,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3">
         <v>300</v>
@@ -2495,120 +2734,6 @@
         <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3">
-        <v>200</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>300</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2620,26 +2745,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>200</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3">
+        <v>300</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/downloads/testcases/testcases.xlsx
+++ b/downloads/testcases/testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VCFs" sheetId="1" r:id="rId1"/>
@@ -197,18 +197,9 @@
     <t>1/1:.</t>
   </si>
   <si>
-    <t>0/1:500</t>
-  </si>
-  <si>
     <t>G and G are TRANS</t>
   </si>
   <si>
-    <t>1/0:500</t>
-  </si>
-  <si>
-    <t>0/1:700</t>
-  </si>
-  <si>
     <t>G and G are CIS</t>
   </si>
   <si>
@@ -351,6 +342,15 @@
   </si>
   <si>
     <t>ALT=G, homozygous</t>
+  </si>
+  <si>
+    <t>0|1:500</t>
+  </si>
+  <si>
+    <t>1|0:500</t>
+  </si>
+  <si>
+    <t>0|1:700</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD5"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -877,9 +877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>17</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>53</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
         <v>53</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>44</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1410,13 +1410,13 @@
         <v>44</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1448,13 +1448,13 @@
         <v>44</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1486,13 +1486,13 @@
         <v>44</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1521,16 +1521,16 @@
         <v>42</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1559,16 +1559,16 @@
         <v>42</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1597,16 +1597,16 @@
         <v>42</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,16 +1635,16 @@
         <v>42</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1673,16 +1673,16 @@
         <v>42</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,16 +1711,16 @@
         <v>42</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1749,16 +1749,16 @@
         <v>42</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1787,16 +1787,16 @@
         <v>42</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1825,16 +1825,16 @@
         <v>42</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,16 +1863,16 @@
         <v>42</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1901,16 +1901,16 @@
         <v>42</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1939,16 +1939,16 @@
         <v>42</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1977,16 +1977,16 @@
         <v>42</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2015,16 +2015,16 @@
         <v>42</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
         <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>42</v>
@@ -2053,16 +2053,16 @@
         <v>42</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>42</v>
@@ -2091,16 +2091,16 @@
         <v>42</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2117,7 +2117,7 @@
         <v>47</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>42</v>
@@ -2129,16 +2129,16 @@
         <v>42</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2155,7 +2155,7 @@
         <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>42</v>
@@ -2167,16 +2167,16 @@
         <v>42</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2193,7 +2193,7 @@
         <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>42</v>
@@ -2205,16 +2205,16 @@
         <v>42</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2243,16 +2243,16 @@
         <v>42</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2281,16 +2281,16 @@
         <v>42</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2319,16 +2319,16 @@
         <v>42</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2357,16 +2357,16 @@
         <v>42</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2395,16 +2395,16 @@
         <v>42</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -2433,16 +2433,16 @@
         <v>42</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2456,7 +2456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
@@ -2500,7 +2500,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
@@ -2535,16 +2535,16 @@
         <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2573,16 +2573,16 @@
         <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2611,16 +2611,16 @@
         <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2649,16 +2649,16 @@
         <v>42</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2687,16 +2687,16 @@
         <v>42</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,16 +2725,16 @@
         <v>42</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2783,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
@@ -2818,16 +2818,16 @@
         <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2856,16 +2856,16 @@
         <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2894,16 +2894,16 @@
         <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2952,7 +2952,7 @@
         <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
@@ -2987,16 +2987,16 @@
         <v>42</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3025,16 +3025,16 @@
         <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -3063,16 +3063,16 @@
         <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
